--- a/Work Visit Verification List (BKK) - Copy.xlsx
+++ b/Work Visit Verification List (BKK) - Copy.xlsx
@@ -5,28 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="14955" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plantation1" sheetId="1" r:id="rId1"/>
     <sheet name="Plantation2" sheetId="7" r:id="rId2"/>
-    <sheet name="Day-2" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Day-2'!$A$1:$Y$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Plantation1!$A$1:$Y$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Plantation1!$A$1:$Y$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Plantation2!$A$1:$Y$23</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="51">
   <si>
     <t>Personnel ID (SAP ID)</t>
   </si>
@@ -106,42 +104,12 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>MARJAN PURBA</t>
-  </si>
-  <si>
     <t>v</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>25/03/2019</t>
-  </si>
-  <si>
-    <t>26/03/2019</t>
-  </si>
-  <si>
-    <t>27/03/2019</t>
-  </si>
-  <si>
-    <t>28/03/2019</t>
-  </si>
-  <si>
-    <t>29/03/2019</t>
-  </si>
-  <si>
-    <t>KBN</t>
-  </si>
-  <si>
-    <t>KRB / UKUI</t>
-  </si>
-  <si>
-    <t>UKUI</t>
-  </si>
-  <si>
-    <t>Medan</t>
-  </si>
-  <si>
     <t>20/08/2019</t>
   </si>
   <si>
@@ -209,12 +177,24 @@
   </si>
   <si>
     <t>PKU</t>
+  </si>
+  <si>
+    <t>PKU-MDN</t>
+  </si>
+  <si>
+    <t>MDN-PKU</t>
+  </si>
+  <si>
+    <t>Note: KBL is plantation in Tebing Tinggi, KAN is for plantation in Rantau Parapat</t>
+  </si>
+  <si>
+    <t>Note: KSA is plantation in UKUI Riau, KTZ is for plantation in Bangkinang Riau, KPN is for plantation in Paranap Riau</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -425,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -588,12 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,10 +876,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9:U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -997,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -1015,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -1143,7 +1117,7 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="24"/>
@@ -1151,29 +1125,29 @@
       <c r="F12" s="30"/>
       <c r="G12" s="20"/>
       <c r="H12" s="25" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
       <c r="L12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="34"/>
@@ -1182,7 +1156,7 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="24"/>
@@ -1190,29 +1164,29 @@
       <c r="F13" s="30"/>
       <c r="G13" s="20"/>
       <c r="H13" s="25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="29"/>
       <c r="L13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="34"/>
@@ -1221,7 +1195,7 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24"/>
@@ -1229,29 +1203,29 @@
       <c r="F14" s="30"/>
       <c r="G14" s="20"/>
       <c r="H14" s="25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="29"/>
       <c r="L14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="34"/>
@@ -1260,7 +1234,7 @@
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24"/>
@@ -1268,113 +1242,59 @@
       <c r="F15" s="30"/>
       <c r="G15" s="20"/>
       <c r="H15" s="25" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
       <c r="L15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" s="23"/>
       <c r="P15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="34"/>
       <c r="W15" s="35"/>
       <c r="X15" s="36"/>
     </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="36"/>
-    </row>
-    <row r="17" spans="2:24" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
-    </row>
-    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="61">
     <mergeCell ref="A2:Y2"/>
     <mergeCell ref="S7:X7"/>
     <mergeCell ref="A3:Y3"/>
     <mergeCell ref="G7:M7"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
     <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
     <mergeCell ref="G5:K5"/>
     <mergeCell ref="H9:K11"/>
     <mergeCell ref="V9:X11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="R11:S11"/>
     <mergeCell ref="R10:U10"/>
-    <mergeCell ref="V16:X16"/>
     <mergeCell ref="L9:U9"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="V17:X17"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="R15:S15"/>
-    <mergeCell ref="R17:S17"/>
     <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T17:U17"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="L10:Q10"/>
     <mergeCell ref="R13:S13"/>
@@ -1391,23 +1311,12 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="T14:U14"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="B16:C16"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D16:E16"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="B12:C12"/>
@@ -1447,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:K21"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="41" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
@@ -1558,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7" s="42"/>
       <c r="I7" s="42"/>
@@ -1686,37 +1595,39 @@
     </row>
     <row r="12" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="24"/>
+      <c r="D12" s="24">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="E12" s="20"/>
       <c r="F12" s="30"/>
       <c r="G12" s="20"/>
       <c r="H12" s="25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
       <c r="L12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M12" s="23"/>
       <c r="N12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q12" s="23"/>
       <c r="R12" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" s="23"/>
       <c r="T12" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="34"/>
@@ -1725,7 +1636,7 @@
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="19" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="24"/>
@@ -1733,29 +1644,29 @@
       <c r="F13" s="30"/>
       <c r="G13" s="20"/>
       <c r="H13" s="25" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="29"/>
       <c r="L13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="23"/>
       <c r="N13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q13" s="23"/>
       <c r="R13" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="23"/>
       <c r="T13" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U13" s="23"/>
       <c r="V13" s="34"/>
@@ -1764,7 +1675,7 @@
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="24"/>
@@ -1772,29 +1683,29 @@
       <c r="F14" s="30"/>
       <c r="G14" s="20"/>
       <c r="H14" s="25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="I14" s="28"/>
       <c r="J14" s="28"/>
       <c r="K14" s="29"/>
       <c r="L14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M14" s="23"/>
       <c r="N14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="23"/>
       <c r="R14" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="23"/>
       <c r="T14" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="34"/>
@@ -1803,7 +1714,7 @@
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="24"/>
@@ -1811,29 +1722,29 @@
       <c r="F15" s="30"/>
       <c r="G15" s="20"/>
       <c r="H15" s="25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I15" s="28"/>
       <c r="J15" s="28"/>
       <c r="K15" s="29"/>
       <c r="L15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" s="23"/>
       <c r="N15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O15" s="23"/>
       <c r="P15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="23"/>
       <c r="R15" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="23"/>
       <c r="T15" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U15" s="23"/>
       <c r="V15" s="34"/>
@@ -1842,7 +1753,7 @@
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="24"/>
@@ -1850,29 +1761,29 @@
       <c r="F16" s="24"/>
       <c r="G16" s="20"/>
       <c r="H16" s="25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I16" s="26"/>
       <c r="J16" s="26"/>
       <c r="K16" s="27"/>
       <c r="L16" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M16" s="23"/>
       <c r="N16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O16" s="23"/>
       <c r="P16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="23"/>
       <c r="R16" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" s="23"/>
       <c r="T16" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U16" s="23"/>
       <c r="V16" s="34"/>
@@ -1881,7 +1792,7 @@
     </row>
     <row r="17" spans="2:24" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="24"/>
@@ -1889,29 +1800,29 @@
       <c r="F17" s="24"/>
       <c r="G17" s="20"/>
       <c r="H17" s="25" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="I17" s="26"/>
       <c r="J17" s="26"/>
       <c r="K17" s="27"/>
       <c r="L17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="23"/>
       <c r="N17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O17" s="23"/>
       <c r="P17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q17" s="23"/>
       <c r="R17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="23"/>
       <c r="T17" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U17" s="23"/>
       <c r="V17" s="31"/>
@@ -1920,7 +1831,7 @@
     </row>
     <row r="18" spans="2:24" ht="62.25" x14ac:dyDescent="0.2">
       <c r="B18" s="19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="24"/>
@@ -1928,29 +1839,29 @@
       <c r="F18" s="24"/>
       <c r="G18" s="20"/>
       <c r="H18" s="25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I18" s="26"/>
       <c r="J18" s="26"/>
       <c r="K18" s="27"/>
       <c r="L18" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="23"/>
       <c r="N18" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O18" s="23"/>
       <c r="P18" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q18" s="23"/>
       <c r="R18" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" s="23"/>
       <c r="T18" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U18" s="23"/>
       <c r="V18" s="31"/>
@@ -1959,7 +1870,7 @@
     </row>
     <row r="19" spans="2:24" ht="62.25" x14ac:dyDescent="0.2">
       <c r="B19" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="24"/>
@@ -1967,29 +1878,29 @@
       <c r="F19" s="24"/>
       <c r="G19" s="20"/>
       <c r="H19" s="25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I19" s="26"/>
       <c r="J19" s="26"/>
       <c r="K19" s="27"/>
       <c r="L19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M19" s="23"/>
       <c r="N19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q19" s="23"/>
       <c r="R19" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="23"/>
       <c r="T19" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U19" s="23"/>
       <c r="V19" s="31"/>
@@ -1998,7 +1909,7 @@
     </row>
     <row r="20" spans="2:24" ht="62.25" x14ac:dyDescent="0.2">
       <c r="B20" s="19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="24"/>
@@ -2006,29 +1917,29 @@
       <c r="F20" s="24"/>
       <c r="G20" s="20"/>
       <c r="H20" s="25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
       <c r="K20" s="27"/>
       <c r="L20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M20" s="23"/>
       <c r="N20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O20" s="23"/>
       <c r="P20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q20" s="23"/>
       <c r="R20" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="23"/>
       <c r="T20" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U20" s="23"/>
       <c r="V20" s="31"/>
@@ -2037,7 +1948,7 @@
     </row>
     <row r="21" spans="2:24" ht="62.25" x14ac:dyDescent="0.2">
       <c r="B21" s="19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="24"/>
@@ -2045,36 +1956,40 @@
       <c r="F21" s="24"/>
       <c r="G21" s="20"/>
       <c r="H21" s="25" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I21" s="26"/>
       <c r="J21" s="26"/>
       <c r="K21" s="27"/>
       <c r="L21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" s="23"/>
       <c r="N21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O21" s="23"/>
       <c r="P21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="23"/>
       <c r="R21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" s="23"/>
       <c r="T21" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U21" s="23"/>
       <c r="V21" s="31"/>
       <c r="W21" s="32"/>
       <c r="X21" s="33"/>
     </row>
-    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="121">
     <mergeCell ref="V21:X21"/>
@@ -2088,7 +2003,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="R21:S21"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="V19:X19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:G20"/>
@@ -2108,7 +2022,7 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="R19:S19"/>
     <mergeCell ref="T19:U19"/>
-    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="V19:X19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -2128,7 +2042,7 @@
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="V17:X17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
@@ -2148,7 +2062,7 @@
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="V15:X15"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="F14:G14"/>
@@ -2168,7 +2082,7 @@
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="R13:S13"/>
     <mergeCell ref="T13:U13"/>
-    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V13:X13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
@@ -2178,6 +2092,16 @@
     <mergeCell ref="P12:Q12"/>
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="T12:U12"/>
+    <mergeCell ref="A2:Y2"/>
+    <mergeCell ref="A3:Y3"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="B9:C11"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="H9:K11"/>
+    <mergeCell ref="L9:U9"/>
+    <mergeCell ref="V9:X11"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="L10:Q10"/>
@@ -2188,543 +2112,11 @@
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="P11:Q11"/>
     <mergeCell ref="R11:S11"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="L9:U9"/>
-    <mergeCell ref="V9:X11"/>
+    <mergeCell ref="T11:U11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Y17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:S15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" customWidth="1"/>
-    <col min="20" max="20" width="5.7109375" customWidth="1"/>
-    <col min="21" max="21" width="4.7109375" customWidth="1"/>
-    <col min="22" max="23" width="5.7109375" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" customWidth="1"/>
-    <col min="25" max="25" width="2.5703125" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:25" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="41">
-        <v>10008843</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="43"/>
-    </row>
-    <row r="6" spans="1:25" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="43"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-    </row>
-    <row r="8" spans="1:25" s="1" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="53"/>
-    </row>
-    <row r="10" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-    </row>
-    <row r="11" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="60"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="U11" s="21"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="58"/>
-      <c r="X11" s="59"/>
-    </row>
-    <row r="12" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="23"/>
-      <c r="P12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" s="23"/>
-      <c r="T12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="36"/>
-    </row>
-    <row r="13" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="23"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="36"/>
-    </row>
-    <row r="14" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="36"/>
-    </row>
-    <row r="15" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U15" s="23"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="36"/>
-    </row>
-    <row r="16" spans="1:25" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="30">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="G16" s="20"/>
-      <c r="H16" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="33"/>
-    </row>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="71">
-    <mergeCell ref="V9:X11"/>
-    <mergeCell ref="A2:Y2"/>
-    <mergeCell ref="A3:Y3"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="R10:U10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="L9:U9"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="B9:C11"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:M16"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>